--- a/Kotoba/bab1.xlsx
+++ b/Kotoba/bab1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alzan\OneDrive\Documents\kotoba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6821C4-232A-4C9B-A2CA-110FCE0C8AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9456BE0-C57C-4FF9-839F-B0B440F4C62A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="147">
   <si>
     <t>Kata</t>
   </si>
@@ -844,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScale="63" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -887,16 +887,25 @@
       <c r="D2" t="s">
         <v>77</v>
       </c>
+      <c r="E2" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
+      <c r="B3" t="s">
+        <v>119</v>
+      </c>
       <c r="C3" t="s">
         <v>50</v>
       </c>
       <c r="D3" t="s">
         <v>78</v>
+      </c>
+      <c r="E3" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -912,6 +921,9 @@
       <c r="D4" t="s">
         <v>116</v>
       </c>
+      <c r="E4" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -934,6 +946,9 @@
       <c r="A6" t="s">
         <v>7</v>
       </c>
+      <c r="B6" t="s">
+        <v>119</v>
+      </c>
       <c r="C6" t="s">
         <v>118</v>
       </c>
@@ -948,6 +963,9 @@
       <c r="A7" t="s">
         <v>8</v>
       </c>
+      <c r="B7" t="s">
+        <v>119</v>
+      </c>
       <c r="C7" t="s">
         <v>119</v>
       </c>
@@ -962,6 +980,9 @@
       <c r="A8" t="s">
         <v>9</v>
       </c>
+      <c r="B8" t="s">
+        <v>119</v>
+      </c>
       <c r="C8" t="s">
         <v>52</v>
       </c>
@@ -1002,6 +1023,9 @@
       <c r="D10" t="s">
         <v>83</v>
       </c>
+      <c r="E10" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
@@ -1016,6 +1040,9 @@
       <c r="D11" t="s">
         <v>84</v>
       </c>
+      <c r="E11" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
@@ -1030,6 +1057,9 @@
       <c r="D12" t="s">
         <v>85</v>
       </c>
+      <c r="E12" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
@@ -1061,6 +1091,9 @@
       <c r="D14" t="s">
         <v>87</v>
       </c>
+      <c r="E14" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
@@ -1075,6 +1108,9 @@
       <c r="D15" t="s">
         <v>88</v>
       </c>
+      <c r="E15" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
@@ -1089,6 +1125,9 @@
       <c r="D16" t="s">
         <v>89</v>
       </c>
+      <c r="E16" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
@@ -1103,6 +1142,9 @@
       <c r="D17" t="s">
         <v>90</v>
       </c>
+      <c r="E17" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
@@ -1117,22 +1159,34 @@
       <c r="D18" t="s">
         <v>91</v>
       </c>
+      <c r="E18" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>125</v>
       </c>
+      <c r="B19" t="s">
+        <v>119</v>
+      </c>
       <c r="C19" t="s">
         <v>61</v>
       </c>
       <c r="D19" t="s">
         <v>127</v>
+      </c>
+      <c r="E19" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>124</v>
       </c>
+      <c r="B20" t="s">
+        <v>119</v>
+      </c>
       <c r="C20" t="s">
         <v>61</v>
       </c>
@@ -1156,6 +1210,9 @@
       <c r="D21" t="s">
         <v>92</v>
       </c>
+      <c r="E21" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
@@ -1170,11 +1227,17 @@
       <c r="D22" t="s">
         <v>133</v>
       </c>
+      <c r="E22" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>130</v>
       </c>
+      <c r="B23" t="s">
+        <v>119</v>
+      </c>
       <c r="C23" t="s">
         <v>62</v>
       </c>
@@ -1189,28 +1252,43 @@
       <c r="A24" t="s">
         <v>21</v>
       </c>
+      <c r="B24" t="s">
+        <v>119</v>
+      </c>
       <c r="C24" t="s">
         <v>63</v>
       </c>
       <c r="D24" t="s">
         <v>93</v>
+      </c>
+      <c r="E24" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>22</v>
       </c>
+      <c r="B25" t="s">
+        <v>119</v>
+      </c>
       <c r="C25" t="s">
         <v>64</v>
       </c>
       <c r="D25" t="s">
         <v>94</v>
+      </c>
+      <c r="E25" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>23</v>
       </c>
+      <c r="B26" t="s">
+        <v>119</v>
+      </c>
       <c r="C26" t="s">
         <v>65</v>
       </c>
@@ -1225,17 +1303,26 @@
       <c r="A27" t="s">
         <v>24</v>
       </c>
+      <c r="B27" t="s">
+        <v>119</v>
+      </c>
       <c r="C27" t="s">
         <v>66</v>
       </c>
       <c r="D27" t="s">
         <v>96</v>
+      </c>
+      <c r="E27" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>25</v>
       </c>
+      <c r="B28" t="s">
+        <v>119</v>
+      </c>
       <c r="C28" t="s">
         <v>67</v>
       </c>
@@ -1250,6 +1337,9 @@
       <c r="A29" t="s">
         <v>26</v>
       </c>
+      <c r="B29" t="s">
+        <v>119</v>
+      </c>
       <c r="C29" t="s">
         <v>68</v>
       </c>
@@ -1264,69 +1354,105 @@
       <c r="A30" t="s">
         <v>27</v>
       </c>
+      <c r="B30" t="s">
+        <v>119</v>
+      </c>
       <c r="C30" t="s">
         <v>69</v>
       </c>
       <c r="D30" t="s">
         <v>99</v>
+      </c>
+      <c r="E30" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>28</v>
       </c>
+      <c r="B31" t="s">
+        <v>119</v>
+      </c>
       <c r="C31" t="s">
         <v>136</v>
       </c>
       <c r="D31" t="s">
         <v>100</v>
+      </c>
+      <c r="E31" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>144</v>
       </c>
+      <c r="B32" t="s">
+        <v>119</v>
+      </c>
       <c r="C32" t="s">
         <v>137</v>
       </c>
       <c r="D32" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E32" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>29</v>
       </c>
+      <c r="B33" t="s">
+        <v>119</v>
+      </c>
       <c r="C33" t="s">
         <v>70</v>
       </c>
       <c r="D33" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E33" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>30</v>
       </c>
+      <c r="B34" t="s">
+        <v>119</v>
+      </c>
       <c r="C34" t="s">
         <v>71</v>
       </c>
       <c r="D34" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E34" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>146</v>
       </c>
+      <c r="B35" t="s">
+        <v>119</v>
+      </c>
       <c r="C35" t="s">
         <v>138</v>
       </c>
       <c r="D35" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E35" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>142</v>
       </c>
@@ -1339,60 +1465,93 @@
       <c r="D36" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E36" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>33</v>
       </c>
+      <c r="B37" t="s">
+        <v>119</v>
+      </c>
       <c r="C37" t="s">
         <v>74</v>
       </c>
       <c r="D37" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E37" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>35</v>
       </c>
+      <c r="B38" t="s">
+        <v>119</v>
+      </c>
       <c r="C38" t="s">
         <v>76</v>
       </c>
       <c r="D38" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E38" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>34</v>
       </c>
+      <c r="B39" t="s">
+        <v>119</v>
+      </c>
       <c r="C39" t="s">
         <v>75</v>
       </c>
       <c r="D39" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E39" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>32</v>
       </c>
+      <c r="B40" t="s">
+        <v>119</v>
+      </c>
       <c r="C40" t="s">
         <v>73</v>
       </c>
       <c r="D40" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E40" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>31</v>
       </c>
+      <c r="B41" t="s">
+        <v>119</v>
+      </c>
       <c r="C41" t="s">
         <v>72</v>
       </c>
       <c r="D41" t="s">
         <v>103</v>
+      </c>
+      <c r="E41" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
